--- a/data/trans_bre/P16B06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>51,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,5%</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,65; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,07; 71,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,65; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,04; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,3%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 48,64</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-31,7; 0,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 94,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,7; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,8%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-9,49; 38,65</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 19,72</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 63,22</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 26,04</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,11%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,57; -1,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 162,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,57; -1,63</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 11,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 11,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,18; 13,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 13,64</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 14,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 6,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 6,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 18,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 6,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 11,87</t>
+          <t>-11,39; 19,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 11,75</t>
+          <t>-1,46; 23,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 13,7</t>
+          <t>-11,52; 23,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 13,64</t>
+          <t>-1,46; 31,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>-2,14%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-7,71; 15,92</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 0,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 0,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 19,21</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 0,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-2,31; 14,98</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-3,01; 6,38</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-3,77; 6,48</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-2,39; 18,49</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-3,03; 6,84</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-3,83; 7,15</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Edad-trans_bre.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 0,0</t>
+          <t>-54,86; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 71,63</t>
+          <t>-59,91; 72,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 0,0</t>
+          <t>-54,86; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,04; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,64</t>
+          <t>0,0; 48,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 94,39</t>
+          <t>0,0; 92,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 38,65</t>
+          <t>-9,48; 38,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 19,72</t>
+          <t>-11,26; 19,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 63,22</t>
+          <t>-9,51; 68,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 26,04</t>
+          <t>-11,33; 26,06</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,0</t>
+          <t>0,0; 67,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,0</t>
+          <t>-16,29; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,63</t>
+          <t>-13,73; -1,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 162,93</t>
+          <t>0,0; 205,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,0</t>
+          <t>-16,29; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,63</t>
+          <t>-13,73; -1,64</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 19,04</t>
+          <t>-11,32; 18,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 23,88</t>
+          <t>-1,47; 21,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 23,7</t>
+          <t>-11,63; 23,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 31,29</t>
+          <t>-1,47; 27,98</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 15,92</t>
+          <t>-7,68; 15,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,0</t>
+          <t>-5,8; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 0,0</t>
+          <t>-10,77; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 19,21</t>
+          <t>-7,69; 18,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,0</t>
+          <t>-5,8; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 0,0</t>
+          <t>-10,77; 0,0</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,98</t>
+          <t>-1,77; 14,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,38</t>
+          <t>-2,83; 5,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,48</t>
+          <t>-3,19; 7,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 18,49</t>
+          <t>-1,81; 17,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 6,84</t>
+          <t>-2,84; 6,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,15</t>
+          <t>-3,21; 8,47</t>
         </is>
       </c>
     </row>
